--- a/src/main/resources/data/dict/词汇.xlsx
+++ b/src/main/resources/data/dict/词汇.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_GitHub\java-architect-util\free-apps\src\main\resources\data\dict\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_GitHub\video-easy-creator\src\main\resources\data\dict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EA5779-ED6C-4661-A910-A4EAB17CBE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB09C21-9CF7-45A6-841A-3FA50265B084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="2990" windowWidth="28800" windowHeight="17660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="250" windowWidth="38620" windowHeight="21460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="四六级及以上" sheetId="1" r:id="rId1"/>
@@ -952,7 +952,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
